--- a/raw_game_pulls/6197950_Play-By-Play for South Carolina St. vs Bethune-Cookman.xlsx
+++ b/raw_game_pulls/6197950_Play-By-Play for South Carolina St. vs Bethune-Cookman.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdona\repos\ncaa_2024\raw_game_pulls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B7017D-CEC9-4FAC-B4FC-656C0E2AFE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -697,48 +703,21 @@
     <t>Jumper GOOD by SCSTATE's Everett, Davion</t>
   </si>
   <si>
-    <t>Jumper GOOD by BETHUNE's Carter-hollinger, D</t>
-  </si>
-  <si>
     <t>SCSTATE Turnover by Everett, Davion</t>
   </si>
   <si>
-    <t>BETHUNE Steal by Mcentire, Damani</t>
-  </si>
-  <si>
-    <t>Layup GOOD by BETHUNE's Harmon, Zion</t>
-  </si>
-  <si>
-    <t>BETHUNE Assist by Heady, Jakobi</t>
-  </si>
-  <si>
     <t>SCSTATE Turnover by Taylor, Mitchel</t>
   </si>
   <si>
-    <t>BETHUNE Steal by Heady, Jakobi</t>
-  </si>
-  <si>
     <t>Foul on SCSTATE's Taylor, Mitchel</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by BETHUNE's Heady, Jakobi</t>
-  </si>
-  <si>
     <t>SCSTATE Defensive REBOUND by Taylor, Mitchel</t>
   </si>
   <si>
     <t>3 Pointer MISSED by SCSTATE's Taylor, Mitchel</t>
   </si>
   <si>
-    <t>BETHUNE Defensive REBOUND by Carter-hollinger, D</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by BETHUNE's Carter-hollinger, D</t>
-  </si>
-  <si>
-    <t>BETHUNE Assist by Hulsewe, Elijah</t>
-  </si>
-  <si>
     <t>Subbing in for SCSTATE - Alston, Shaman</t>
   </si>
   <si>
@@ -763,18 +742,9 @@
     <t>Subbing out for SCSTATE - Dubinsky, Wilson</t>
   </si>
   <si>
-    <t>Layup MISSED by BETHUNE's Heady, Jakobi</t>
-  </si>
-  <si>
     <t>SCSTATE Block by Jones, Drayton</t>
   </si>
   <si>
-    <t>BETHUNE Offensive REBOUND by Hulsewe, Elijah</t>
-  </si>
-  <si>
-    <t>Tip In GOOD by BETHUNE's Hulsewe, Elijah</t>
-  </si>
-  <si>
     <t>Jumper MISSED by SCSTATE's Teal, Michael</t>
   </si>
   <si>
@@ -790,27 +760,18 @@
     <t>Tip In GOOD by SCSTATE's Mccarty, Caleb</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by BETHUNE's Harmon, Zion</t>
-  </si>
-  <si>
     <t>SCSTATE Defensive REBOUND by Alston, Shaman</t>
   </si>
   <si>
     <t>Layup MISSED by SCSTATE's Jones, Drayton</t>
   </si>
   <si>
-    <t>BETHUNE Defensive REBOUND by Hulsewe, Elijah</t>
-  </si>
-  <si>
     <t>SCSTATE Defensive REBOUND by Jones, Drayton</t>
   </si>
   <si>
     <t>Layup MISSED by SCSTATE's Taylor, Atiba</t>
   </si>
   <si>
-    <t>BETHUNE Block by Heady, Jakobi</t>
-  </si>
-  <si>
     <t>SCSTATE Offensive REBOUND by team</t>
   </si>
   <si>
@@ -823,18 +784,6 @@
     <t>Subbing out for SCSTATE - Jones, Drayton</t>
   </si>
   <si>
-    <t>Foul on BETHUNE's Dyson, Dhashon</t>
-  </si>
-  <si>
-    <t>BETHUNE Block by Hulsewe, Elijah</t>
-  </si>
-  <si>
-    <t>BETHUNE Defensive REBOUND by Heady, Jakobi</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by BETHUNE's Dyson, Dhashon</t>
-  </si>
-  <si>
     <t>SCSTATE Defensive REBOUND by Mccarty, Caleb</t>
   </si>
   <si>
@@ -847,24 +796,12 @@
     <t>Foul on SCSTATE's James, Dallas</t>
   </si>
   <si>
-    <t>Free Throw GOOD by BETHUNE's Heady, Jakobi</t>
-  </si>
-  <si>
     <t>Layup GOOD by SCSTATE's Alston, Shaman</t>
   </si>
   <si>
-    <t>Jumper MISSED by BETHUNE's Heady, Jakobi</t>
-  </si>
-  <si>
     <t>SCSTATE Block by James, Dallas</t>
   </si>
   <si>
-    <t>Jumper MISSED by BETHUNE's Hulsewe, Elijah</t>
-  </si>
-  <si>
-    <t>BETHUNE Offensive REBOUND by Heady, Jakobi</t>
-  </si>
-  <si>
     <t>Subbing in for SCSTATE - Marrow, James</t>
   </si>
   <si>
@@ -883,15 +820,9 @@
     <t>Subbing out for SCSTATE - Mccarty, Caleb</t>
   </si>
   <si>
-    <t>Jumper GOOD by BETHUNE's Hulsewe, Elijah</t>
-  </si>
-  <si>
     <t>SCSTATE Defensive REBOUND by Everett, Davion</t>
   </si>
   <si>
-    <t>Foul on BETHUNE's Hulsewe, Elijah</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by SCSTATE's Marrow, James</t>
   </si>
   <si>
@@ -904,15 +835,6 @@
     <t>SCSTATE Turnover by Marrow, James</t>
   </si>
   <si>
-    <t>Layup GOOD by BETHUNE's Heady, Jakobi</t>
-  </si>
-  <si>
-    <t>Subbing in for BETHUNE - Mcentire, Damani</t>
-  </si>
-  <si>
-    <t>Subbing out for BETHUNE - Dyson, Dhashon</t>
-  </si>
-  <si>
     <t>Layup GOOD by SCSTATE's Everett, Davion</t>
   </si>
   <si>
@@ -922,24 +844,9 @@
     <t>Free Throw MISSED by SCSTATE's Everett, Davion</t>
   </si>
   <si>
-    <t xml:space="preserve">BETHUNE Defensive REBOUND by ,, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subbing in for BETHUNE - ,, </t>
-  </si>
-  <si>
-    <t>Subbing out for BETHUNE - Hulsewe, Elijah</t>
-  </si>
-  <si>
-    <t>BETHUNE Turnover by Carter-hollinger, D</t>
-  </si>
-  <si>
     <t>SCSTATE Steal by Marrow, James</t>
   </si>
   <si>
-    <t>Foul on BETHUNE's Carter-hollinger, D</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by SCSTATE's Marrow, James</t>
   </si>
   <si>
@@ -949,27 +856,15 @@
     <t>SCSTATE Steal by Taylor, Mitchel</t>
   </si>
   <si>
-    <t>Foul on BETHUNE's Mcentire, Damani</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by SCSTATE's Taylor, Mitchel</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by BETHUNE's Mcentire, Damani</t>
-  </si>
-  <si>
     <t>SCSTATE Defensive REBOUND by Marrow, James</t>
   </si>
   <si>
-    <t xml:space="preserve">Foul on BETHUNE's ,, </t>
-  </si>
-  <si>
     <t>Layup MISSED by SCSTATE's Simpson, Jordan</t>
   </si>
   <si>
-    <t>Jumper MISSED by BETHUNE's Harmon, Zion</t>
-  </si>
-  <si>
     <t>SCSTATE Block by Marrow, James</t>
   </si>
   <si>
@@ -991,18 +886,6 @@
     <t>SCSTATE takes a 30-second time out.</t>
   </si>
   <si>
-    <t>Subbing in for BETHUNE - Wiloughby, Seneca</t>
-  </si>
-  <si>
-    <t>Subbing in for BETHUNE - Dyson, Dhashon</t>
-  </si>
-  <si>
-    <t>Subbing out for BETHUNE - Harmon, Zion</t>
-  </si>
-  <si>
-    <t>Subbing out for BETHUNE - Heady, Jakobi</t>
-  </si>
-  <si>
     <t>Subbing in for SCSTATE - Dubinsky, Wilson</t>
   </si>
   <si>
@@ -1021,12 +904,6 @@
     <t>Subbing out for SCSTATE - Taylor, Atiba</t>
   </si>
   <si>
-    <t>3 Pointer GOOD by BETHUNE's Dyson, Dhashon</t>
-  </si>
-  <si>
-    <t>BETHUNE Assist by Wiloughby, Seneca</t>
-  </si>
-  <si>
     <t>SCSTATE Turnover by Croskey, Omar</t>
   </si>
   <si>
@@ -1042,24 +919,9 @@
     <t>3 Pointer MISSED by SCSTATE's Brown, Raquan</t>
   </si>
   <si>
-    <t>Slam Dunk GOOD by BETHUNE's Carter-hollinger, D</t>
-  </si>
-  <si>
     <t>Jumper MISSED by SCSTATE's Mccarty, Caleb</t>
   </si>
   <si>
-    <t>BETHUNE Defensive REBOUND by Mcentire, Damani</t>
-  </si>
-  <si>
-    <t>BETHUNE Turnover by Dyson, Dhashon</t>
-  </si>
-  <si>
-    <t>Subbing in for BETHUNE - Harmon, Zion</t>
-  </si>
-  <si>
-    <t>Subbing out for BETHUNE - Carter-hollinger, D</t>
-  </si>
-  <si>
     <t>Subbing out for SCSTATE - Brown, Raquan</t>
   </si>
   <si>
@@ -1069,48 +931,15 @@
     <t>SCSTATE Assist by Dubinsky, Wilson</t>
   </si>
   <si>
-    <t>Jumper GOOD by BETHUNE's Mcentire, Damani</t>
-  </si>
-  <si>
-    <t>BETHUNE Defensive REBOUND by Wiloughby, Seneca</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by BETHUNE's Harmon, Zion</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by BETHUNE's Wiloughby, Seneca</t>
-  </si>
-  <si>
-    <t>BETHUNE Assist by Mcentire, Damani</t>
-  </si>
-  <si>
     <t>SCSTATE Turnover by Teal, Michael</t>
   </si>
   <si>
-    <t>BETHUNE Steal by Harmon, Zion</t>
-  </si>
-  <si>
     <t>Foul on SCSTATE's Teal, Michael</t>
   </si>
   <si>
-    <t>Free Throw MISSED by BETHUNE's Mcentire, Damani</t>
-  </si>
-  <si>
-    <t>BETHUNE gets a REBOUND from a dead ball.</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by BETHUNE's Mcentire, Damani</t>
-  </si>
-  <si>
     <t>Subbing in for SCSTATE - Jones, Drayton</t>
   </si>
   <si>
-    <t>Subbing in for BETHUNE - Carter-hollinger, D</t>
-  </si>
-  <si>
-    <t>Subbing out for BETHUNE - Mcentire, Damani</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by SCSTATE's Teal, Michael</t>
   </si>
   <si>
@@ -1120,90 +949,36 @@
     <t>Jumper GOOD by SCSTATE's Jones, Drayton</t>
   </si>
   <si>
-    <t>BETHUNE Steal by Wiloughby, Seneca</t>
-  </si>
-  <si>
-    <t>BETHUNE Turnover by Wiloughby, Seneca</t>
-  </si>
-  <si>
     <t>Jumper MISSED by SCSTATE's Croskey, Omar</t>
   </si>
   <si>
-    <t>BETHUNE Defensive REBOUND by Dyson, Dhashon</t>
-  </si>
-  <si>
-    <t>Layup GOOD by BETHUNE's Dyson, Dhashon</t>
-  </si>
-  <si>
     <t>Jumper MISSED by SCSTATE's Jones, Drayton</t>
   </si>
   <si>
     <t>SCSTATE Turnover by Jones, Drayton</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by BETHUNE's Dyson, Dhashon</t>
-  </si>
-  <si>
     <t>Jumper MISSED by SCSTATE's Taylor, Mitchel</t>
   </si>
   <si>
     <t>Tip In MISSED by SCSTATE's Marrow, James</t>
   </si>
   <si>
-    <t>BETHUNE Defensive REBOUND by Watson, Dondre</t>
-  </si>
-  <si>
-    <t>Subbing in for BETHUNE - Watson, Dondre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subbing out for BETHUNE - ,, </t>
-  </si>
-  <si>
-    <t>Foul on BETHUNE's Watson, Dondre</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by SCSTATE's Jones, Drayton</t>
   </si>
   <si>
     <t>Free Throw MISSED by SCSTATE's Jones, Drayton</t>
   </si>
   <si>
-    <t>BETHUNE takes a 30-second time out.</t>
-  </si>
-  <si>
-    <t>Subbing in for BETHUNE - Heady, Jakobi</t>
-  </si>
-  <si>
-    <t>Subbing out for BETHUNE - Watson, Dondre</t>
-  </si>
-  <si>
-    <t>Subbing out for BETHUNE - Wiloughby, Seneca</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by BETHUNE's Heady, Jakobi</t>
-  </si>
-  <si>
-    <t>BETHUNE Assist by Dyson, Dhashon</t>
-  </si>
-  <si>
     <t>Jumper MISSED by SCSTATE's Simpson, Jordan</t>
   </si>
   <si>
-    <t>Jumper GOOD by BETHUNE's Dyson, Dhashon</t>
-  </si>
-  <si>
     <t>Foul on SCSTATE's Mccarty, Caleb</t>
   </si>
   <si>
-    <t>Free Throw MISSED by BETHUNE's Hulsewe, Elijah</t>
-  </si>
-  <si>
     <t>Layup MISSED by SCSTATE's Teal, Michael</t>
   </si>
   <si>
-    <t>Jumper GOOD by BETHUNE's Heady, Jakobi</t>
-  </si>
-  <si>
     <t>Layup MISSED by SCSTATE's Taylor, Mitchel</t>
   </si>
   <si>
@@ -1213,36 +988,15 @@
     <t>Free Throw MISSED by SCSTATE's Mccarty, Caleb</t>
   </si>
   <si>
-    <t>Layup GOOD by BETHUNE's Hulsewe, Elijah</t>
-  </si>
-  <si>
-    <t>BETHUNE Assist by Harmon, Zion</t>
-  </si>
-  <si>
     <t>Jumper GOOD by SCSTATE's Simpson, Jordan</t>
   </si>
   <si>
-    <t>Slam Dunk MISSED by BETHUNE's Heady, Jakobi</t>
-  </si>
-  <si>
     <t>SCSTATE Block by Mccarty, Caleb</t>
   </si>
   <si>
-    <t>Slam Dunk GOOD by BETHUNE's Heady, Jakobi</t>
-  </si>
-  <si>
-    <t>BETHUNE Block by Carter-hollinger, D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BETHUNE Offensive REBOUND by ,, </t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by SCSTATE's Simpson, Jordan</t>
   </si>
   <si>
-    <t>Layup MISSED by BETHUNE's Harmon, Zion</t>
-  </si>
-  <si>
     <t>Layup MISSED by SCSTATE's Everett, Davion</t>
   </si>
   <si>
@@ -1258,147 +1012,63 @@
     <t>SCSTATE Turnover by Alston, Shaman</t>
   </si>
   <si>
-    <t>BETHUNE Steal by Dyson, Dhashon</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by SCSTATE's Taylor, Atiba</t>
   </si>
   <si>
     <t>Free Throw MISSED by SCSTATE's Taylor, Mitchel</t>
   </si>
   <si>
-    <t>Foul on BETHUNE's Harmon, Zion</t>
-  </si>
-  <si>
     <t>SCSTATE Turnover by Taylor, Atiba</t>
   </si>
   <si>
-    <t>Tip In GOOD by BETHUNE's Harmon, Zion</t>
-  </si>
-  <si>
     <t>Foul on SCSTATE's Jones, Drayton</t>
   </si>
   <si>
-    <t>Free Throw GOOD by BETHUNE's Harmon, Zion</t>
-  </si>
-  <si>
     <t>Slam Dunk MISSED by SCSTATE's Mccarty, Caleb</t>
   </si>
   <si>
     <t>Tip In GOOD by SCSTATE's Everett, Davion</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by BETHUNE's Wiloughby, Seneca</t>
-  </si>
-  <si>
     <t>SCSTATE Defensive REBOUND by Teal, Michael</t>
   </si>
   <si>
-    <t>Foul on BETHUNE's Wiloughby, Seneca</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by SCSTATE's Teal, Michael</t>
   </si>
   <si>
-    <t>BETHUNE Offensive REBOUND by team</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by BETHUNE's Harmon, Zion</t>
-  </si>
-  <si>
-    <t>BETHUNE Defensive REBOUND by team</t>
-  </si>
-  <si>
-    <t>BETHUNE Defensive REBOUND by Harmon, Zion</t>
-  </si>
-  <si>
     <t>3 Pointer GOOD by SCSTATE's Dubinsky, Wilson</t>
   </si>
   <si>
     <t>SCSTATE Assist by Simpson, Jordan</t>
   </si>
   <si>
-    <t>Layup GOOD by BETHUNE's Wiloughby, Seneca</t>
-  </si>
-  <si>
     <t>SCSTATE Steal by Dubinsky, Wilson</t>
   </si>
   <si>
-    <t xml:space="preserve">Jumper GOOD by BETHUNE's ,, </t>
-  </si>
-  <si>
     <t>Slam Dunk GOOD by SCSTATE's Simpson, Jordan</t>
   </si>
   <si>
     <t>SCSTATE Assist by Teal, Michael</t>
   </si>
   <si>
-    <t>Subbing in for BETHUNE - Hulsewe, Elijah</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by SCSTATE's Dubinsky, Wilson</t>
   </si>
   <si>
     <t>Slam Dunk GOOD by SCSTATE's Mccarty, Caleb</t>
   </si>
   <si>
-    <t>BETHUNE takes a TIMEOUT</t>
-  </si>
-  <si>
     <t>Foul on SCSTATE's Marrow, James</t>
   </si>
   <si>
-    <t>Free Throw MISSED by BETHUNE's Heady, Jakobi</t>
-  </si>
-  <si>
     <t>Slam Dunk GOOD by SCSTATE's Jones, Drayton</t>
   </si>
   <si>
     <t>SCSTATE Assist by Taylor, Mitchel</t>
   </si>
   <si>
-    <t>BETHUNE Turnover by team</t>
-  </si>
-  <si>
-    <t>Subbing in for BETHUNE - Dorsey, Mason</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by BETHUNE's Dorsey, Mason</t>
-  </si>
-  <si>
-    <t>BETHUNE Offensive REBOUND by Dorsey, Mason</t>
-  </si>
-  <si>
-    <t>BETHUNE Steal by Watson, Dondre</t>
-  </si>
-  <si>
-    <t>BETHUNE Offensive REBOUND by Watson, Dondre</t>
-  </si>
-  <si>
-    <t>Free Throw MISSED by BETHUNE's Watson, Dondre</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by BETHUNE's Watson, Dondre</t>
-  </si>
-  <si>
-    <t>Subbing in for BETHUNE - Womack, Simeon</t>
-  </si>
-  <si>
-    <t>BETHUNE Turnover by Womack, Simeon</t>
-  </si>
-  <si>
-    <t>Subbing in for BETHUNE - Mathews, Jayson</t>
-  </si>
-  <si>
     <t>Jumper GOOD by SCSTATE's Teal, Michael</t>
   </si>
   <si>
-    <t>Layup MISSED by BETHUNE's Womack, Simeon</t>
-  </si>
-  <si>
-    <t>Jumper MISSED by BETHUNE's Womack, Simeon</t>
-  </si>
-  <si>
     <t>SCSTATE Defensive REBOUND by Dubinsky, Wilson</t>
   </si>
   <si>
@@ -1408,23 +1078,359 @@
     <t>SCSTATE Assist by Jones, Drayton</t>
   </si>
   <si>
-    <t>Free Throw MISSED by BETHUNE's Mathews, Jayson</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by BETHUNE's Mathews, Jayson</t>
-  </si>
-  <si>
-    <t>Foul on BETHUNE's Womack, Simeon</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by SCSTATE's Teal, Michael</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by BCU's Carter-hollinger, D</t>
+  </si>
+  <si>
+    <t>BCU Steal by Mcentire, Damani</t>
+  </si>
+  <si>
+    <t>Layup GOOD by BCU's Harmon, Zion</t>
+  </si>
+  <si>
+    <t>BCU Assist by Heady, Jakobi</t>
+  </si>
+  <si>
+    <t>BCU Steal by Heady, Jakobi</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by BCU's Heady, Jakobi</t>
+  </si>
+  <si>
+    <t>BCU Defensive REBOUND by Carter-hollinger, D</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by BCU's Carter-hollinger, D</t>
+  </si>
+  <si>
+    <t>BCU Assist by Hulsewe, Elijah</t>
+  </si>
+  <si>
+    <t>Layup MISSED by BCU's Heady, Jakobi</t>
+  </si>
+  <si>
+    <t>BCU Offensive REBOUND by Hulsewe, Elijah</t>
+  </si>
+  <si>
+    <t>Tip In GOOD by BCU's Hulsewe, Elijah</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by BCU's Harmon, Zion</t>
+  </si>
+  <si>
+    <t>BCU Defensive REBOUND by Hulsewe, Elijah</t>
+  </si>
+  <si>
+    <t>BCU Block by Heady, Jakobi</t>
+  </si>
+  <si>
+    <t>Foul on BCU's Dyson, Dhashon</t>
+  </si>
+  <si>
+    <t>BCU Block by Hulsewe, Elijah</t>
+  </si>
+  <si>
+    <t>BCU Defensive REBOUND by Heady, Jakobi</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by BCU's Dyson, Dhashon</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by BCU's Heady, Jakobi</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by BCU's Heady, Jakobi</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by BCU's Hulsewe, Elijah</t>
+  </si>
+  <si>
+    <t>BCU Offensive REBOUND by Heady, Jakobi</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by BCU's Hulsewe, Elijah</t>
+  </si>
+  <si>
+    <t>Foul on BCU's Hulsewe, Elijah</t>
+  </si>
+  <si>
+    <t>Layup GOOD by BCU's Heady, Jakobi</t>
+  </si>
+  <si>
+    <t>Subbing in for BCU - Mcentire, Damani</t>
+  </si>
+  <si>
+    <t>Subbing out for BCU - Dyson, Dhashon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCU Defensive REBOUND by ,, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subbing in for BCU - ,, </t>
+  </si>
+  <si>
+    <t>Subbing out for BCU - Hulsewe, Elijah</t>
+  </si>
+  <si>
+    <t>BCU Turnover by Carter-hollinger, D</t>
+  </si>
+  <si>
+    <t>Foul on BCU's Carter-hollinger, D</t>
+  </si>
+  <si>
+    <t>Foul on BCU's Mcentire, Damani</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by BCU's Mcentire, Damani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foul on BCU's ,, </t>
+  </si>
+  <si>
+    <t>Jumper MISSED by BCU's Harmon, Zion</t>
+  </si>
+  <si>
+    <t>Subbing in for BCU - Wiloughby, Seneca</t>
+  </si>
+  <si>
+    <t>Subbing in for BCU - Dyson, Dhashon</t>
+  </si>
+  <si>
+    <t>Subbing out for BCU - Harmon, Zion</t>
+  </si>
+  <si>
+    <t>Subbing out for BCU - Heady, Jakobi</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by BCU's Dyson, Dhashon</t>
+  </si>
+  <si>
+    <t>BCU Assist by Wiloughby, Seneca</t>
+  </si>
+  <si>
+    <t>Slam Dunk GOOD by BCU's Carter-hollinger, D</t>
+  </si>
+  <si>
+    <t>BCU Defensive REBOUND by Mcentire, Damani</t>
+  </si>
+  <si>
+    <t>BCU Turnover by Dyson, Dhashon</t>
+  </si>
+  <si>
+    <t>Subbing in for BCU - Harmon, Zion</t>
+  </si>
+  <si>
+    <t>Subbing out for BCU - Carter-hollinger, D</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by BCU's Mcentire, Damani</t>
+  </si>
+  <si>
+    <t>BCU Defensive REBOUND by Wiloughby, Seneca</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by BCU's Harmon, Zion</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by BCU's Wiloughby, Seneca</t>
+  </si>
+  <si>
+    <t>BCU Assist by Mcentire, Damani</t>
+  </si>
+  <si>
+    <t>BCU Steal by Harmon, Zion</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by BCU's Mcentire, Damani</t>
+  </si>
+  <si>
+    <t>BCU gets a REBOUND from a dead ball.</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by BCU's Mcentire, Damani</t>
+  </si>
+  <si>
+    <t>Subbing in for BCU - Carter-hollinger, D</t>
+  </si>
+  <si>
+    <t>Subbing out for BCU - Mcentire, Damani</t>
+  </si>
+  <si>
+    <t>BCU Steal by Wiloughby, Seneca</t>
+  </si>
+  <si>
+    <t>BCU Turnover by Wiloughby, Seneca</t>
+  </si>
+  <si>
+    <t>BCU Defensive REBOUND by Dyson, Dhashon</t>
+  </si>
+  <si>
+    <t>Layup GOOD by BCU's Dyson, Dhashon</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by BCU's Dyson, Dhashon</t>
+  </si>
+  <si>
+    <t>BCU Defensive REBOUND by Watson, Dondre</t>
+  </si>
+  <si>
+    <t>Subbing in for BCU - Watson, Dondre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subbing out for BCU - ,, </t>
+  </si>
+  <si>
+    <t>Foul on BCU's Watson, Dondre</t>
+  </si>
+  <si>
+    <t>BCU takes a 30-second time out.</t>
+  </si>
+  <si>
+    <t>Subbing in for BCU - Heady, Jakobi</t>
+  </si>
+  <si>
+    <t>Subbing out for BCU - Watson, Dondre</t>
+  </si>
+  <si>
+    <t>Subbing out for BCU - Wiloughby, Seneca</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by BCU's Heady, Jakobi</t>
+  </si>
+  <si>
+    <t>BCU Assist by Dyson, Dhashon</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by BCU's Dyson, Dhashon</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by BCU's Hulsewe, Elijah</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by BCU's Heady, Jakobi</t>
+  </si>
+  <si>
+    <t>Layup GOOD by BCU's Hulsewe, Elijah</t>
+  </si>
+  <si>
+    <t>BCU Assist by Harmon, Zion</t>
+  </si>
+  <si>
+    <t>Slam Dunk MISSED by BCU's Heady, Jakobi</t>
+  </si>
+  <si>
+    <t>Slam Dunk GOOD by BCU's Heady, Jakobi</t>
+  </si>
+  <si>
+    <t>BCU Block by Carter-hollinger, D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCU Offensive REBOUND by ,, </t>
+  </si>
+  <si>
+    <t>Layup MISSED by BCU's Harmon, Zion</t>
+  </si>
+  <si>
+    <t>BCU Steal by Dyson, Dhashon</t>
+  </si>
+  <si>
+    <t>Foul on BCU's Harmon, Zion</t>
+  </si>
+  <si>
+    <t>Tip In GOOD by BCU's Harmon, Zion</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by BCU's Harmon, Zion</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by BCU's Wiloughby, Seneca</t>
+  </si>
+  <si>
+    <t>Foul on BCU's Wiloughby, Seneca</t>
+  </si>
+  <si>
+    <t>BCU Offensive REBOUND by team</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by BCU's Harmon, Zion</t>
+  </si>
+  <si>
+    <t>BCU Defensive REBOUND by team</t>
+  </si>
+  <si>
+    <t>BCU Defensive REBOUND by Harmon, Zion</t>
+  </si>
+  <si>
+    <t>Layup GOOD by BCU's Wiloughby, Seneca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumper GOOD by BCU's ,, </t>
+  </si>
+  <si>
+    <t>Subbing in for BCU - Hulsewe, Elijah</t>
+  </si>
+  <si>
+    <t>BCU takes a TIMEOUT</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by BCU's Heady, Jakobi</t>
+  </si>
+  <si>
+    <t>BCU Turnover by team</t>
+  </si>
+  <si>
+    <t>Subbing in for BCU - Dorsey, Mason</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by BCU's Dorsey, Mason</t>
+  </si>
+  <si>
+    <t>BCU Offensive REBOUND by Dorsey, Mason</t>
+  </si>
+  <si>
+    <t>BCU Steal by Watson, Dondre</t>
+  </si>
+  <si>
+    <t>BCU Offensive REBOUND by Watson, Dondre</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by BCU's Watson, Dondre</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by BCU's Watson, Dondre</t>
+  </si>
+  <si>
+    <t>Subbing in for BCU - Womack, Simeon</t>
+  </si>
+  <si>
+    <t>BCU Turnover by Womack, Simeon</t>
+  </si>
+  <si>
+    <t>Subbing in for BCU - Mathews, Jayson</t>
+  </si>
+  <si>
+    <t>Layup MISSED by BCU's Womack, Simeon</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by BCU's Womack, Simeon</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by BCU's Mathews, Jayson</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by BCU's Mathews, Jayson</t>
+  </si>
+  <si>
+    <t>Foul on BCU's Womack, Simeon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1487,13 +1493,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1531,7 +1545,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1565,6 +1579,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1599,9 +1614,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1774,14 +1790,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E582"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1798,7 +1814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1815,7 +1831,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1832,7 +1848,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1849,7 +1865,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1863,10 +1879,10 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1880,10 +1896,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1897,10 +1913,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1914,10 +1930,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1931,10 +1947,10 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1948,10 +1964,10 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1965,10 +1981,10 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1982,10 +1998,10 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1999,10 +2015,10 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2016,10 +2032,10 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2033,10 +2049,10 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2050,10 +2066,10 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2067,10 +2083,10 @@
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2084,10 +2100,10 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2101,10 +2117,10 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2118,10 +2134,10 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2135,10 +2151,10 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2152,10 +2168,10 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2169,10 +2185,10 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2186,10 +2202,10 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2203,10 +2219,10 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2220,10 +2236,10 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2237,10 +2253,10 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2254,10 +2270,10 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2271,10 +2287,10 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2288,10 +2304,10 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2305,10 +2321,10 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2322,10 +2338,10 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2339,10 +2355,10 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2356,10 +2372,10 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2373,10 +2389,10 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2390,10 +2406,10 @@
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2407,10 +2423,10 @@
         <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2424,10 +2440,10 @@
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2441,10 +2457,10 @@
         <v>4</v>
       </c>
       <c r="E39" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2458,10 +2474,10 @@
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2475,10 +2491,10 @@
         <v>4</v>
       </c>
       <c r="E41" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2492,10 +2508,10 @@
         <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2509,10 +2525,10 @@
         <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2526,10 +2542,10 @@
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2543,10 +2559,10 @@
         <v>4</v>
       </c>
       <c r="E45" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2560,10 +2576,10 @@
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2577,10 +2593,10 @@
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2594,10 +2610,10 @@
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2611,10 +2627,10 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2628,10 +2644,10 @@
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2645,10 +2661,10 @@
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2662,10 +2678,10 @@
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2679,10 +2695,10 @@
         <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2696,10 +2712,10 @@
         <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2713,10 +2729,10 @@
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2730,10 +2746,10 @@
         <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2747,10 +2763,10 @@
         <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2764,10 +2780,10 @@
         <v>6</v>
       </c>
       <c r="E58" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2781,10 +2797,10 @@
         <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2798,10 +2814,10 @@
         <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2815,10 +2831,10 @@
         <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2832,10 +2848,10 @@
         <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2849,10 +2865,10 @@
         <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2866,10 +2882,10 @@
         <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2883,10 +2899,10 @@
         <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2900,10 +2916,10 @@
         <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2917,10 +2933,10 @@
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2934,10 +2950,10 @@
         <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2951,10 +2967,10 @@
         <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2968,10 +2984,10 @@
         <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2985,10 +3001,10 @@
         <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -3002,10 +3018,10 @@
         <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -3019,10 +3035,10 @@
         <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -3036,10 +3052,10 @@
         <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3053,10 +3069,10 @@
         <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3070,10 +3086,10 @@
         <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3087,10 +3103,10 @@
         <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3104,10 +3120,10 @@
         <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3121,10 +3137,10 @@
         <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3138,10 +3154,10 @@
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3155,10 +3171,10 @@
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3172,10 +3188,10 @@
         <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3189,10 +3205,10 @@
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3206,10 +3222,10 @@
         <v>12</v>
       </c>
       <c r="E84" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3223,10 +3239,10 @@
         <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3240,10 +3256,10 @@
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3257,10 +3273,10 @@
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3274,10 +3290,10 @@
         <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3291,10 +3307,10 @@
         <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3308,10 +3324,10 @@
         <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3325,10 +3341,10 @@
         <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3342,10 +3358,10 @@
         <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3359,10 +3375,10 @@
         <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3376,10 +3392,10 @@
         <v>14</v>
       </c>
       <c r="E94" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3393,10 +3409,10 @@
         <v>14</v>
       </c>
       <c r="E95" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3410,10 +3426,10 @@
         <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3427,10 +3443,10 @@
         <v>14</v>
       </c>
       <c r="E97" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3444,10 +3460,10 @@
         <v>14</v>
       </c>
       <c r="E98" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3461,10 +3477,10 @@
         <v>14</v>
       </c>
       <c r="E99" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3478,10 +3494,10 @@
         <v>14</v>
       </c>
       <c r="E100" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3495,10 +3511,10 @@
         <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3512,10 +3528,10 @@
         <v>14</v>
       </c>
       <c r="E102" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3529,10 +3545,10 @@
         <v>15</v>
       </c>
       <c r="E103" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3546,10 +3562,10 @@
         <v>15</v>
       </c>
       <c r="E104" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3563,10 +3579,10 @@
         <v>15</v>
       </c>
       <c r="E105" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3580,10 +3596,10 @@
         <v>15</v>
       </c>
       <c r="E106" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3597,10 +3613,10 @@
         <v>16</v>
       </c>
       <c r="E107" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -3614,10 +3630,10 @@
         <v>17</v>
       </c>
       <c r="E108" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3631,10 +3647,10 @@
         <v>17</v>
       </c>
       <c r="E109" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3648,10 +3664,10 @@
         <v>17</v>
       </c>
       <c r="E110" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -3665,10 +3681,10 @@
         <v>17</v>
       </c>
       <c r="E111" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -3682,10 +3698,10 @@
         <v>17</v>
       </c>
       <c r="E112" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -3699,10 +3715,10 @@
         <v>17</v>
       </c>
       <c r="E113" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3716,10 +3732,10 @@
         <v>17</v>
       </c>
       <c r="E114" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3733,10 +3749,10 @@
         <v>17</v>
       </c>
       <c r="E115" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3750,10 +3766,10 @@
         <v>17</v>
       </c>
       <c r="E116" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -3767,10 +3783,10 @@
         <v>17</v>
       </c>
       <c r="E117" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -3784,10 +3800,10 @@
         <v>17</v>
       </c>
       <c r="E118" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -3801,10 +3817,10 @@
         <v>19</v>
       </c>
       <c r="E119" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3818,10 +3834,10 @@
         <v>19</v>
       </c>
       <c r="E120" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -3835,10 +3851,10 @@
         <v>19</v>
       </c>
       <c r="E121" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3852,10 +3868,10 @@
         <v>19</v>
       </c>
       <c r="E122" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -3869,10 +3885,10 @@
         <v>19</v>
       </c>
       <c r="E123" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3886,10 +3902,10 @@
         <v>19</v>
       </c>
       <c r="E124" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -3903,10 +3919,10 @@
         <v>19</v>
       </c>
       <c r="E125" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3920,10 +3936,10 @@
         <v>19</v>
       </c>
       <c r="E126" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -3937,10 +3953,10 @@
         <v>19</v>
       </c>
       <c r="E127" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -3954,10 +3970,10 @@
         <v>19</v>
       </c>
       <c r="E128" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -3971,10 +3987,10 @@
         <v>19</v>
       </c>
       <c r="E129" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3988,10 +4004,10 @@
         <v>19</v>
       </c>
       <c r="E130" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4005,10 +4021,10 @@
         <v>19</v>
       </c>
       <c r="E131" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -4022,10 +4038,10 @@
         <v>19</v>
       </c>
       <c r="E132" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4039,10 +4055,10 @@
         <v>19</v>
       </c>
       <c r="E133" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -4056,10 +4072,10 @@
         <v>19</v>
       </c>
       <c r="E134" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -4073,10 +4089,10 @@
         <v>19</v>
       </c>
       <c r="E135" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -4090,10 +4106,10 @@
         <v>19</v>
       </c>
       <c r="E136" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -4107,10 +4123,10 @@
         <v>19</v>
       </c>
       <c r="E137" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4124,10 +4140,10 @@
         <v>19</v>
       </c>
       <c r="E138" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -4141,10 +4157,10 @@
         <v>19</v>
       </c>
       <c r="E139" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4158,10 +4174,10 @@
         <v>19</v>
       </c>
       <c r="E140" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -4175,10 +4191,10 @@
         <v>19</v>
       </c>
       <c r="E141" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4192,10 +4208,10 @@
         <v>19</v>
       </c>
       <c r="E142" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4209,10 +4225,10 @@
         <v>19</v>
       </c>
       <c r="E143" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
@@ -4226,10 +4242,10 @@
         <v>19</v>
       </c>
       <c r="E144" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4243,10 +4259,10 @@
         <v>19</v>
       </c>
       <c r="E145" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -4260,10 +4276,10 @@
         <v>19</v>
       </c>
       <c r="E146" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4277,10 +4293,10 @@
         <v>19</v>
       </c>
       <c r="E147" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
@@ -4294,10 +4310,10 @@
         <v>19</v>
       </c>
       <c r="E148" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1</v>
       </c>
@@ -4311,10 +4327,10 @@
         <v>19</v>
       </c>
       <c r="E149" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4328,10 +4344,10 @@
         <v>19</v>
       </c>
       <c r="E150" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4345,10 +4361,10 @@
         <v>19</v>
       </c>
       <c r="E151" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -4362,10 +4378,10 @@
         <v>19</v>
       </c>
       <c r="E152" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -4379,10 +4395,10 @@
         <v>19</v>
       </c>
       <c r="E153" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
@@ -4396,10 +4412,10 @@
         <v>19</v>
       </c>
       <c r="E154" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -4413,10 +4429,10 @@
         <v>19</v>
       </c>
       <c r="E155" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -4430,10 +4446,10 @@
         <v>19</v>
       </c>
       <c r="E156" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -4447,10 +4463,10 @@
         <v>19</v>
       </c>
       <c r="E157" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -4464,10 +4480,10 @@
         <v>19</v>
       </c>
       <c r="E158" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -4481,10 +4497,10 @@
         <v>19</v>
       </c>
       <c r="E159" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -4498,10 +4514,10 @@
         <v>19</v>
       </c>
       <c r="E160" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1</v>
       </c>
@@ -4515,10 +4531,10 @@
         <v>19</v>
       </c>
       <c r="E161" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
@@ -4532,10 +4548,10 @@
         <v>19</v>
       </c>
       <c r="E162" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
@@ -4549,10 +4565,10 @@
         <v>19</v>
       </c>
       <c r="E163" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -4566,10 +4582,10 @@
         <v>19</v>
       </c>
       <c r="E164" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -4583,10 +4599,10 @@
         <v>21</v>
       </c>
       <c r="E165" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1</v>
       </c>
@@ -4600,10 +4616,10 @@
         <v>21</v>
       </c>
       <c r="E166" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -4617,10 +4633,10 @@
         <v>21</v>
       </c>
       <c r="E167" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -4634,10 +4650,10 @@
         <v>21</v>
       </c>
       <c r="E168" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
@@ -4651,10 +4667,10 @@
         <v>21</v>
       </c>
       <c r="E169" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -4668,10 +4684,10 @@
         <v>21</v>
       </c>
       <c r="E170" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1</v>
       </c>
@@ -4685,10 +4701,10 @@
         <v>21</v>
       </c>
       <c r="E171" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1</v>
       </c>
@@ -4702,10 +4718,10 @@
         <v>23</v>
       </c>
       <c r="E172" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1</v>
       </c>
@@ -4719,10 +4735,10 @@
         <v>23</v>
       </c>
       <c r="E173" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1</v>
       </c>
@@ -4736,10 +4752,10 @@
         <v>23</v>
       </c>
       <c r="E174" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -4753,10 +4769,10 @@
         <v>23</v>
       </c>
       <c r="E175" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
@@ -4770,10 +4786,10 @@
         <v>23</v>
       </c>
       <c r="E176" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1</v>
       </c>
@@ -4787,10 +4803,10 @@
         <v>23</v>
       </c>
       <c r="E177" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -4804,10 +4820,10 @@
         <v>23</v>
       </c>
       <c r="E178" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
@@ -4821,10 +4837,10 @@
         <v>23</v>
       </c>
       <c r="E179" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1</v>
       </c>
@@ -4838,10 +4854,10 @@
         <v>23</v>
       </c>
       <c r="E180" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1</v>
       </c>
@@ -4855,10 +4871,10 @@
         <v>23</v>
       </c>
       <c r="E181" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -4872,10 +4888,10 @@
         <v>23</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -4889,10 +4905,10 @@
         <v>23</v>
       </c>
       <c r="E183" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1</v>
       </c>
@@ -4906,10 +4922,10 @@
         <v>23</v>
       </c>
       <c r="E184" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1</v>
       </c>
@@ -4923,10 +4939,10 @@
         <v>23</v>
       </c>
       <c r="E185" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -4940,10 +4956,10 @@
         <v>23</v>
       </c>
       <c r="E186" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1</v>
       </c>
@@ -4957,10 +4973,10 @@
         <v>23</v>
       </c>
       <c r="E187" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
@@ -4974,10 +4990,10 @@
         <v>23</v>
       </c>
       <c r="E188" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
@@ -4991,10 +5007,10 @@
         <v>23</v>
       </c>
       <c r="E189" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
@@ -5008,10 +5024,10 @@
         <v>23</v>
       </c>
       <c r="E190" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
@@ -5025,10 +5041,10 @@
         <v>23</v>
       </c>
       <c r="E191" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
@@ -5042,10 +5058,10 @@
         <v>23</v>
       </c>
       <c r="E192" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
@@ -5059,10 +5075,10 @@
         <v>23</v>
       </c>
       <c r="E193" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
@@ -5076,10 +5092,10 @@
         <v>23</v>
       </c>
       <c r="E194" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -5093,10 +5109,10 @@
         <v>23</v>
       </c>
       <c r="E195" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -5110,10 +5126,10 @@
         <v>23</v>
       </c>
       <c r="E196" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -5127,10 +5143,10 @@
         <v>25</v>
       </c>
       <c r="E197" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -5144,10 +5160,10 @@
         <v>25</v>
       </c>
       <c r="E198" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -5161,10 +5177,10 @@
         <v>25</v>
       </c>
       <c r="E199" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
@@ -5178,10 +5194,10 @@
         <v>25</v>
       </c>
       <c r="E200" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -5195,10 +5211,10 @@
         <v>25</v>
       </c>
       <c r="E201" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -5212,10 +5228,10 @@
         <v>25</v>
       </c>
       <c r="E202" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
@@ -5229,10 +5245,10 @@
         <v>25</v>
       </c>
       <c r="E203" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
@@ -5246,10 +5262,10 @@
         <v>25</v>
       </c>
       <c r="E204" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1</v>
       </c>
@@ -5263,10 +5279,10 @@
         <v>25</v>
       </c>
       <c r="E205" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1</v>
       </c>
@@ -5280,10 +5296,10 @@
         <v>25</v>
       </c>
       <c r="E206" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -5297,10 +5313,10 @@
         <v>25</v>
       </c>
       <c r="E207" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -5314,10 +5330,10 @@
         <v>25</v>
       </c>
       <c r="E208" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -5331,10 +5347,10 @@
         <v>25</v>
       </c>
       <c r="E209" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1</v>
       </c>
@@ -5348,10 +5364,10 @@
         <v>25</v>
       </c>
       <c r="E210" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1</v>
       </c>
@@ -5365,10 +5381,10 @@
         <v>25</v>
       </c>
       <c r="E211" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1</v>
       </c>
@@ -5382,10 +5398,10 @@
         <v>25</v>
       </c>
       <c r="E212" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1</v>
       </c>
@@ -5399,10 +5415,10 @@
         <v>25</v>
       </c>
       <c r="E213" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
@@ -5416,10 +5432,10 @@
         <v>25</v>
       </c>
       <c r="E214" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1</v>
       </c>
@@ -5433,10 +5449,10 @@
         <v>25</v>
       </c>
       <c r="E215" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1</v>
       </c>
@@ -5450,10 +5466,10 @@
         <v>25</v>
       </c>
       <c r="E216" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1</v>
       </c>
@@ -5467,10 +5483,10 @@
         <v>25</v>
       </c>
       <c r="E217" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -5484,10 +5500,10 @@
         <v>25</v>
       </c>
       <c r="E218" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1</v>
       </c>
@@ -5501,10 +5517,10 @@
         <v>25</v>
       </c>
       <c r="E219" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1</v>
       </c>
@@ -5518,10 +5534,10 @@
         <v>25</v>
       </c>
       <c r="E220" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
@@ -5535,10 +5551,10 @@
         <v>25</v>
       </c>
       <c r="E221" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1</v>
       </c>
@@ -5552,10 +5568,10 @@
         <v>25</v>
       </c>
       <c r="E222" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1</v>
       </c>
@@ -5569,10 +5585,10 @@
         <v>25</v>
       </c>
       <c r="E223" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1</v>
       </c>
@@ -5586,10 +5602,10 @@
         <v>26</v>
       </c>
       <c r="E224" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1</v>
       </c>
@@ -5603,10 +5619,10 @@
         <v>26</v>
       </c>
       <c r="E225" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1</v>
       </c>
@@ -5620,10 +5636,10 @@
         <v>26</v>
       </c>
       <c r="E226" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1</v>
       </c>
@@ -5637,10 +5653,10 @@
         <v>26</v>
       </c>
       <c r="E227" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1</v>
       </c>
@@ -5654,10 +5670,10 @@
         <v>26</v>
       </c>
       <c r="E228" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1</v>
       </c>
@@ -5671,10 +5687,10 @@
         <v>26</v>
       </c>
       <c r="E229" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1</v>
       </c>
@@ -5688,10 +5704,10 @@
         <v>26</v>
       </c>
       <c r="E230" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1</v>
       </c>
@@ -5705,10 +5721,10 @@
         <v>26</v>
       </c>
       <c r="E231" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1</v>
       </c>
@@ -5722,10 +5738,10 @@
         <v>26</v>
       </c>
       <c r="E232" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1</v>
       </c>
@@ -5739,10 +5755,10 @@
         <v>26</v>
       </c>
       <c r="E233" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1</v>
       </c>
@@ -5756,10 +5772,10 @@
         <v>26</v>
       </c>
       <c r="E234" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1</v>
       </c>
@@ -5773,10 +5789,10 @@
         <v>26</v>
       </c>
       <c r="E235" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
@@ -5790,10 +5806,10 @@
         <v>26</v>
       </c>
       <c r="E236" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1</v>
       </c>
@@ -5807,10 +5823,10 @@
         <v>26</v>
       </c>
       <c r="E237" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1</v>
       </c>
@@ -5824,10 +5840,10 @@
         <v>26</v>
       </c>
       <c r="E238" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1</v>
       </c>
@@ -5841,10 +5857,10 @@
         <v>26</v>
       </c>
       <c r="E239" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1</v>
       </c>
@@ -5858,10 +5874,10 @@
         <v>26</v>
       </c>
       <c r="E240" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1</v>
       </c>
@@ -5875,10 +5891,10 @@
         <v>26</v>
       </c>
       <c r="E241" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1</v>
       </c>
@@ -5892,10 +5908,10 @@
         <v>26</v>
       </c>
       <c r="E242" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1</v>
       </c>
@@ -5909,10 +5925,10 @@
         <v>27</v>
       </c>
       <c r="E243" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1</v>
       </c>
@@ -5926,10 +5942,10 @@
         <v>28</v>
       </c>
       <c r="E244" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1</v>
       </c>
@@ -5943,10 +5959,10 @@
         <v>28</v>
       </c>
       <c r="E245" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1</v>
       </c>
@@ -5960,10 +5976,10 @@
         <v>28</v>
       </c>
       <c r="E246" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1</v>
       </c>
@@ -5977,10 +5993,10 @@
         <v>28</v>
       </c>
       <c r="E247" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1</v>
       </c>
@@ -5994,10 +6010,10 @@
         <v>28</v>
       </c>
       <c r="E248" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1</v>
       </c>
@@ -6011,10 +6027,10 @@
         <v>28</v>
       </c>
       <c r="E249" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1</v>
       </c>
@@ -6028,10 +6044,10 @@
         <v>30</v>
       </c>
       <c r="E250" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>2</v>
       </c>
@@ -6045,10 +6061,10 @@
         <v>30</v>
       </c>
       <c r="E251" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>2</v>
       </c>
@@ -6062,10 +6078,10 @@
         <v>30</v>
       </c>
       <c r="E252" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>2</v>
       </c>
@@ -6079,10 +6095,10 @@
         <v>30</v>
       </c>
       <c r="E253" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>2</v>
       </c>
@@ -6096,10 +6112,10 @@
         <v>30</v>
       </c>
       <c r="E254" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2</v>
       </c>
@@ -6113,10 +6129,10 @@
         <v>30</v>
       </c>
       <c r="E255" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>2</v>
       </c>
@@ -6130,10 +6146,10 @@
         <v>30</v>
       </c>
       <c r="E256" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2</v>
       </c>
@@ -6147,10 +6163,10 @@
         <v>30</v>
       </c>
       <c r="E257" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2</v>
       </c>
@@ -6164,10 +6180,10 @@
         <v>30</v>
       </c>
       <c r="E258" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2</v>
       </c>
@@ -6181,10 +6197,10 @@
         <v>30</v>
       </c>
       <c r="E259" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2</v>
       </c>
@@ -6198,10 +6214,10 @@
         <v>30</v>
       </c>
       <c r="E260" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2</v>
       </c>
@@ -6215,10 +6231,10 @@
         <v>30</v>
       </c>
       <c r="E261" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2</v>
       </c>
@@ -6232,10 +6248,10 @@
         <v>30</v>
       </c>
       <c r="E262" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2</v>
       </c>
@@ -6249,10 +6265,10 @@
         <v>30</v>
       </c>
       <c r="E263" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2</v>
       </c>
@@ -6266,10 +6282,10 @@
         <v>30</v>
       </c>
       <c r="E264" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2</v>
       </c>
@@ -6283,10 +6299,10 @@
         <v>30</v>
       </c>
       <c r="E265" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2</v>
       </c>
@@ -6300,10 +6316,10 @@
         <v>30</v>
       </c>
       <c r="E266" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2</v>
       </c>
@@ -6317,10 +6333,10 @@
         <v>30</v>
       </c>
       <c r="E267" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2</v>
       </c>
@@ -6334,10 +6350,10 @@
         <v>30</v>
       </c>
       <c r="E268" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2</v>
       </c>
@@ -6351,10 +6367,10 @@
         <v>30</v>
       </c>
       <c r="E269" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2</v>
       </c>
@@ -6368,10 +6384,10 @@
         <v>30</v>
       </c>
       <c r="E270" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2</v>
       </c>
@@ -6385,10 +6401,10 @@
         <v>30</v>
       </c>
       <c r="E271" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2</v>
       </c>
@@ -6402,10 +6418,10 @@
         <v>30</v>
       </c>
       <c r="E272" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2</v>
       </c>
@@ -6419,10 +6435,10 @@
         <v>30</v>
       </c>
       <c r="E273" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2</v>
       </c>
@@ -6436,10 +6452,10 @@
         <v>30</v>
       </c>
       <c r="E274" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2</v>
       </c>
@@ -6453,10 +6469,10 @@
         <v>30</v>
       </c>
       <c r="E275" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2</v>
       </c>
@@ -6470,10 +6486,10 @@
         <v>30</v>
       </c>
       <c r="E276" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2</v>
       </c>
@@ -6487,10 +6503,10 @@
         <v>30</v>
       </c>
       <c r="E277" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2</v>
       </c>
@@ -6504,10 +6520,10 @@
         <v>30</v>
       </c>
       <c r="E278" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2</v>
       </c>
@@ -6521,10 +6537,10 @@
         <v>30</v>
       </c>
       <c r="E279" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2</v>
       </c>
@@ -6538,10 +6554,10 @@
         <v>30</v>
       </c>
       <c r="E280" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2</v>
       </c>
@@ -6555,10 +6571,10 @@
         <v>30</v>
       </c>
       <c r="E281" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2</v>
       </c>
@@ -6572,10 +6588,10 @@
         <v>30</v>
       </c>
       <c r="E282" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2</v>
       </c>
@@ -6589,10 +6605,10 @@
         <v>30</v>
       </c>
       <c r="E283" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2</v>
       </c>
@@ -6606,10 +6622,10 @@
         <v>30</v>
       </c>
       <c r="E284" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2</v>
       </c>
@@ -6623,10 +6639,10 @@
         <v>30</v>
       </c>
       <c r="E285" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2</v>
       </c>
@@ -6640,10 +6656,10 @@
         <v>30</v>
       </c>
       <c r="E286" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2</v>
       </c>
@@ -6657,10 +6673,10 @@
         <v>30</v>
       </c>
       <c r="E287" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2</v>
       </c>
@@ -6674,10 +6690,10 @@
         <v>30</v>
       </c>
       <c r="E288" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2</v>
       </c>
@@ -6691,10 +6707,10 @@
         <v>30</v>
       </c>
       <c r="E289" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2</v>
       </c>
@@ -6708,10 +6724,10 @@
         <v>30</v>
       </c>
       <c r="E290" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2</v>
       </c>
@@ -6725,10 +6741,10 @@
         <v>30</v>
       </c>
       <c r="E291" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2</v>
       </c>
@@ -6742,10 +6758,10 @@
         <v>30</v>
       </c>
       <c r="E292" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2</v>
       </c>
@@ -6759,10 +6775,10 @@
         <v>30</v>
       </c>
       <c r="E293" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2</v>
       </c>
@@ -6776,10 +6792,10 @@
         <v>32</v>
       </c>
       <c r="E294" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2</v>
       </c>
@@ -6793,10 +6809,10 @@
         <v>32</v>
       </c>
       <c r="E295" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2</v>
       </c>
@@ -6810,10 +6826,10 @@
         <v>32</v>
       </c>
       <c r="E296" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2</v>
       </c>
@@ -6827,10 +6843,10 @@
         <v>32</v>
       </c>
       <c r="E297" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2</v>
       </c>
@@ -6844,10 +6860,10 @@
         <v>32</v>
       </c>
       <c r="E298" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2</v>
       </c>
@@ -6861,10 +6877,10 @@
         <v>32</v>
       </c>
       <c r="E299" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2</v>
       </c>
@@ -6878,10 +6894,10 @@
         <v>32</v>
       </c>
       <c r="E300" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2</v>
       </c>
@@ -6895,10 +6911,10 @@
         <v>32</v>
       </c>
       <c r="E301" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>2</v>
       </c>
@@ -6912,10 +6928,10 @@
         <v>32</v>
       </c>
       <c r="E302" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2</v>
       </c>
@@ -6929,10 +6945,10 @@
         <v>32</v>
       </c>
       <c r="E303" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2</v>
       </c>
@@ -6946,10 +6962,10 @@
         <v>32</v>
       </c>
       <c r="E304" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2</v>
       </c>
@@ -6963,10 +6979,10 @@
         <v>32</v>
       </c>
       <c r="E305" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>2</v>
       </c>
@@ -6980,10 +6996,10 @@
         <v>32</v>
       </c>
       <c r="E306" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2</v>
       </c>
@@ -6997,10 +7013,10 @@
         <v>32</v>
       </c>
       <c r="E307" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>2</v>
       </c>
@@ -7014,10 +7030,10 @@
         <v>32</v>
       </c>
       <c r="E308" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2</v>
       </c>
@@ -7031,10 +7047,10 @@
         <v>32</v>
       </c>
       <c r="E309" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>2</v>
       </c>
@@ -7048,10 +7064,10 @@
         <v>32</v>
       </c>
       <c r="E310" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2</v>
       </c>
@@ -7065,10 +7081,10 @@
         <v>32</v>
       </c>
       <c r="E311" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2</v>
       </c>
@@ -7082,10 +7098,10 @@
         <v>32</v>
       </c>
       <c r="E312" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2</v>
       </c>
@@ -7099,10 +7115,10 @@
         <v>32</v>
       </c>
       <c r="E313" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2</v>
       </c>
@@ -7116,10 +7132,10 @@
         <v>33</v>
       </c>
       <c r="E314" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2</v>
       </c>
@@ -7133,10 +7149,10 @@
         <v>34</v>
       </c>
       <c r="E315" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2</v>
       </c>
@@ -7150,10 +7166,10 @@
         <v>34</v>
       </c>
       <c r="E316" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2</v>
       </c>
@@ -7167,10 +7183,10 @@
         <v>34</v>
       </c>
       <c r="E317" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2</v>
       </c>
@@ -7184,10 +7200,10 @@
         <v>34</v>
       </c>
       <c r="E318" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>2</v>
       </c>
@@ -7201,10 +7217,10 @@
         <v>34</v>
       </c>
       <c r="E319" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2</v>
       </c>
@@ -7218,10 +7234,10 @@
         <v>34</v>
       </c>
       <c r="E320" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>2</v>
       </c>
@@ -7235,10 +7251,10 @@
         <v>34</v>
       </c>
       <c r="E321" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>2</v>
       </c>
@@ -7252,10 +7268,10 @@
         <v>34</v>
       </c>
       <c r="E322" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>2</v>
       </c>
@@ -7269,10 +7285,10 @@
         <v>34</v>
       </c>
       <c r="E323" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>2</v>
       </c>
@@ -7286,10 +7302,10 @@
         <v>34</v>
       </c>
       <c r="E324" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>2</v>
       </c>
@@ -7306,7 +7322,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2</v>
       </c>
@@ -7320,10 +7336,10 @@
         <v>34</v>
       </c>
       <c r="E326" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>2</v>
       </c>
@@ -7337,10 +7353,10 @@
         <v>35</v>
       </c>
       <c r="E327" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2</v>
       </c>
@@ -7354,10 +7370,10 @@
         <v>36</v>
       </c>
       <c r="E328" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>2</v>
       </c>
@@ -7371,10 +7387,10 @@
         <v>36</v>
       </c>
       <c r="E329" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>2</v>
       </c>
@@ -7388,10 +7404,10 @@
         <v>36</v>
       </c>
       <c r="E330" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2</v>
       </c>
@@ -7405,10 +7421,10 @@
         <v>36</v>
       </c>
       <c r="E331" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>2</v>
       </c>
@@ -7422,10 +7438,10 @@
         <v>36</v>
       </c>
       <c r="E332" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2</v>
       </c>
@@ -7439,10 +7455,10 @@
         <v>36</v>
       </c>
       <c r="E333" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>2</v>
       </c>
@@ -7456,10 +7472,10 @@
         <v>36</v>
       </c>
       <c r="E334" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>2</v>
       </c>
@@ -7473,10 +7489,10 @@
         <v>36</v>
       </c>
       <c r="E335" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>2</v>
       </c>
@@ -7490,10 +7506,10 @@
         <v>36</v>
       </c>
       <c r="E336" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>2</v>
       </c>
@@ -7507,10 +7523,10 @@
         <v>36</v>
       </c>
       <c r="E337" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>2</v>
       </c>
@@ -7524,10 +7540,10 @@
         <v>36</v>
       </c>
       <c r="E338" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>2</v>
       </c>
@@ -7541,10 +7557,10 @@
         <v>36</v>
       </c>
       <c r="E339" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>2</v>
       </c>
@@ -7558,10 +7574,10 @@
         <v>36</v>
       </c>
       <c r="E340" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>2</v>
       </c>
@@ -7575,10 +7591,10 @@
         <v>36</v>
       </c>
       <c r="E341" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2</v>
       </c>
@@ -7592,10 +7608,10 @@
         <v>36</v>
       </c>
       <c r="E342" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>2</v>
       </c>
@@ -7609,10 +7625,10 @@
         <v>36</v>
       </c>
       <c r="E343" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>2</v>
       </c>
@@ -7626,10 +7642,10 @@
         <v>36</v>
       </c>
       <c r="E344" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
@@ -7643,10 +7659,10 @@
         <v>36</v>
       </c>
       <c r="E345" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>2</v>
       </c>
@@ -7660,10 +7676,10 @@
         <v>36</v>
       </c>
       <c r="E346" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>2</v>
       </c>
@@ -7677,10 +7693,10 @@
         <v>36</v>
       </c>
       <c r="E347" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2</v>
       </c>
@@ -7694,10 +7710,10 @@
         <v>36</v>
       </c>
       <c r="E348" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>2</v>
       </c>
@@ -7711,10 +7727,10 @@
         <v>36</v>
       </c>
       <c r="E349" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>2</v>
       </c>
@@ -7728,10 +7744,10 @@
         <v>36</v>
       </c>
       <c r="E350" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>2</v>
       </c>
@@ -7745,10 +7761,10 @@
         <v>36</v>
       </c>
       <c r="E351" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>2</v>
       </c>
@@ -7762,10 +7778,10 @@
         <v>36</v>
       </c>
       <c r="E352" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>2</v>
       </c>
@@ -7779,10 +7795,10 @@
         <v>36</v>
       </c>
       <c r="E353" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>2</v>
       </c>
@@ -7796,10 +7812,10 @@
         <v>36</v>
       </c>
       <c r="E354" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2</v>
       </c>
@@ -7813,10 +7829,10 @@
         <v>36</v>
       </c>
       <c r="E355" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>2</v>
       </c>
@@ -7830,10 +7846,10 @@
         <v>36</v>
       </c>
       <c r="E356" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>2</v>
       </c>
@@ -7847,10 +7863,10 @@
         <v>36</v>
       </c>
       <c r="E357" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2</v>
       </c>
@@ -7864,10 +7880,10 @@
         <v>36</v>
       </c>
       <c r="E358" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>2</v>
       </c>
@@ -7881,10 +7897,10 @@
         <v>37</v>
       </c>
       <c r="E359" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>2</v>
       </c>
@@ -7898,10 +7914,10 @@
         <v>37</v>
       </c>
       <c r="E360" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>2</v>
       </c>
@@ -7915,10 +7931,10 @@
         <v>37</v>
       </c>
       <c r="E361" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>2</v>
       </c>
@@ -7932,10 +7948,10 @@
         <v>37</v>
       </c>
       <c r="E362" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>2</v>
       </c>
@@ -7949,10 +7965,10 @@
         <v>37</v>
       </c>
       <c r="E363" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>2</v>
       </c>
@@ -7966,10 +7982,10 @@
         <v>37</v>
       </c>
       <c r="E364" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>2</v>
       </c>
@@ -7983,10 +7999,10 @@
         <v>37</v>
       </c>
       <c r="E365" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>2</v>
       </c>
@@ -8000,10 +8016,10 @@
         <v>37</v>
       </c>
       <c r="E366" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>2</v>
       </c>
@@ -8017,10 +8033,10 @@
         <v>37</v>
       </c>
       <c r="E367" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>2</v>
       </c>
@@ -8034,10 +8050,10 @@
         <v>37</v>
       </c>
       <c r="E368" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>2</v>
       </c>
@@ -8051,10 +8067,10 @@
         <v>37</v>
       </c>
       <c r="E369" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>2</v>
       </c>
@@ -8068,10 +8084,10 @@
         <v>37</v>
       </c>
       <c r="E370" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>2</v>
       </c>
@@ -8085,10 +8101,10 @@
         <v>37</v>
       </c>
       <c r="E371" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>2</v>
       </c>
@@ -8102,10 +8118,10 @@
         <v>37</v>
       </c>
       <c r="E372" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>2</v>
       </c>
@@ -8119,10 +8135,10 @@
         <v>37</v>
       </c>
       <c r="E373" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>2</v>
       </c>
@@ -8136,10 +8152,10 @@
         <v>37</v>
       </c>
       <c r="E374" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2</v>
       </c>
@@ -8153,10 +8169,10 @@
         <v>37</v>
       </c>
       <c r="E375" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>2</v>
       </c>
@@ -8170,10 +8186,10 @@
         <v>37</v>
       </c>
       <c r="E376" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2</v>
       </c>
@@ -8187,10 +8203,10 @@
         <v>37</v>
       </c>
       <c r="E377" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2</v>
       </c>
@@ -8207,7 +8223,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2</v>
       </c>
@@ -8221,10 +8237,10 @@
         <v>37</v>
       </c>
       <c r="E379" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2</v>
       </c>
@@ -8241,7 +8257,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2</v>
       </c>
@@ -8255,10 +8271,10 @@
         <v>39</v>
       </c>
       <c r="E381" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2</v>
       </c>
@@ -8272,10 +8288,10 @@
         <v>39</v>
       </c>
       <c r="E382" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2</v>
       </c>
@@ -8289,10 +8305,10 @@
         <v>39</v>
       </c>
       <c r="E383" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2</v>
       </c>
@@ -8306,10 +8322,10 @@
         <v>39</v>
       </c>
       <c r="E384" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2</v>
       </c>
@@ -8323,10 +8339,10 @@
         <v>39</v>
       </c>
       <c r="E385" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2</v>
       </c>
@@ -8340,10 +8356,10 @@
         <v>39</v>
       </c>
       <c r="E386" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2</v>
       </c>
@@ -8357,10 +8373,10 @@
         <v>39</v>
       </c>
       <c r="E387" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2</v>
       </c>
@@ -8374,10 +8390,10 @@
         <v>39</v>
       </c>
       <c r="E388" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2</v>
       </c>
@@ -8391,10 +8407,10 @@
         <v>39</v>
       </c>
       <c r="E389" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2</v>
       </c>
@@ -8408,10 +8424,10 @@
         <v>39</v>
       </c>
       <c r="E390" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2</v>
       </c>
@@ -8425,10 +8441,10 @@
         <v>40</v>
       </c>
       <c r="E391" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>2</v>
       </c>
@@ -8442,10 +8458,10 @@
         <v>41</v>
       </c>
       <c r="E392" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2</v>
       </c>
@@ -8459,10 +8475,10 @@
         <v>41</v>
       </c>
       <c r="E393" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2</v>
       </c>
@@ -8476,10 +8492,10 @@
         <v>41</v>
       </c>
       <c r="E394" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2</v>
       </c>
@@ -8493,10 +8509,10 @@
         <v>41</v>
       </c>
       <c r="E395" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2</v>
       </c>
@@ -8510,10 +8526,10 @@
         <v>41</v>
       </c>
       <c r="E396" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>2</v>
       </c>
@@ -8527,10 +8543,10 @@
         <v>41</v>
       </c>
       <c r="E397" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>2</v>
       </c>
@@ -8544,10 +8560,10 @@
         <v>41</v>
       </c>
       <c r="E398" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2</v>
       </c>
@@ -8561,10 +8577,10 @@
         <v>41</v>
       </c>
       <c r="E399" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>2</v>
       </c>
@@ -8578,10 +8594,10 @@
         <v>41</v>
       </c>
       <c r="E400" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>2</v>
       </c>
@@ -8595,10 +8611,10 @@
         <v>41</v>
       </c>
       <c r="E401" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>2</v>
       </c>
@@ -8612,10 +8628,10 @@
         <v>41</v>
       </c>
       <c r="E402" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2</v>
       </c>
@@ -8629,10 +8645,10 @@
         <v>41</v>
       </c>
       <c r="E403" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2</v>
       </c>
@@ -8646,10 +8662,10 @@
         <v>42</v>
       </c>
       <c r="E404" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>2</v>
       </c>
@@ -8663,10 +8679,10 @@
         <v>43</v>
       </c>
       <c r="E405" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>2</v>
       </c>
@@ -8680,10 +8696,10 @@
         <v>43</v>
       </c>
       <c r="E406" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>2</v>
       </c>
@@ -8697,10 +8713,10 @@
         <v>43</v>
       </c>
       <c r="E407" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>2</v>
       </c>
@@ -8714,10 +8730,10 @@
         <v>43</v>
       </c>
       <c r="E408" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>2</v>
       </c>
@@ -8731,10 +8747,10 @@
         <v>43</v>
       </c>
       <c r="E409" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>2</v>
       </c>
@@ -8748,10 +8764,10 @@
         <v>43</v>
       </c>
       <c r="E410" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>2</v>
       </c>
@@ -8765,10 +8781,10 @@
         <v>43</v>
       </c>
       <c r="E411" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>2</v>
       </c>
@@ -8782,10 +8798,10 @@
         <v>43</v>
       </c>
       <c r="E412" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>2</v>
       </c>
@@ -8799,10 +8815,10 @@
         <v>43</v>
       </c>
       <c r="E413" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>2</v>
       </c>
@@ -8816,10 +8832,10 @@
         <v>43</v>
       </c>
       <c r="E414" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>2</v>
       </c>
@@ -8833,10 +8849,10 @@
         <v>43</v>
       </c>
       <c r="E415" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2</v>
       </c>
@@ -8850,10 +8866,10 @@
         <v>43</v>
       </c>
       <c r="E416" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2</v>
       </c>
@@ -8867,10 +8883,10 @@
         <v>43</v>
       </c>
       <c r="E417" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2</v>
       </c>
@@ -8884,10 +8900,10 @@
         <v>43</v>
       </c>
       <c r="E418" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>2</v>
       </c>
@@ -8901,10 +8917,10 @@
         <v>43</v>
       </c>
       <c r="E419" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2</v>
       </c>
@@ -8918,10 +8934,10 @@
         <v>43</v>
       </c>
       <c r="E420" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2</v>
       </c>
@@ -8935,10 +8951,10 @@
         <v>43</v>
       </c>
       <c r="E421" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>2</v>
       </c>
@@ -8952,10 +8968,10 @@
         <v>43</v>
       </c>
       <c r="E422" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2</v>
       </c>
@@ -8969,10 +8985,10 @@
         <v>43</v>
       </c>
       <c r="E423" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>2</v>
       </c>
@@ -8986,10 +9002,10 @@
         <v>43</v>
       </c>
       <c r="E424" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>2</v>
       </c>
@@ -9003,10 +9019,10 @@
         <v>43</v>
       </c>
       <c r="E425" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>2</v>
       </c>
@@ -9020,10 +9036,10 @@
         <v>43</v>
       </c>
       <c r="E426" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2</v>
       </c>
@@ -9037,10 +9053,10 @@
         <v>43</v>
       </c>
       <c r="E427" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2</v>
       </c>
@@ -9054,10 +9070,10 @@
         <v>43</v>
       </c>
       <c r="E428" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>2</v>
       </c>
@@ -9071,10 +9087,10 @@
         <v>43</v>
       </c>
       <c r="E429" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2</v>
       </c>
@@ -9088,10 +9104,10 @@
         <v>44</v>
       </c>
       <c r="E430" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>2</v>
       </c>
@@ -9105,10 +9121,10 @@
         <v>44</v>
       </c>
       <c r="E431" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2</v>
       </c>
@@ -9122,10 +9138,10 @@
         <v>44</v>
       </c>
       <c r="E432" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>2</v>
       </c>
@@ -9139,10 +9155,10 @@
         <v>44</v>
       </c>
       <c r="E433" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2</v>
       </c>
@@ -9156,10 +9172,10 @@
         <v>44</v>
       </c>
       <c r="E434" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2</v>
       </c>
@@ -9173,10 +9189,10 @@
         <v>44</v>
       </c>
       <c r="E435" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2</v>
       </c>
@@ -9190,10 +9206,10 @@
         <v>44</v>
       </c>
       <c r="E436" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>2</v>
       </c>
@@ -9207,10 +9223,10 @@
         <v>44</v>
       </c>
       <c r="E437" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>2</v>
       </c>
@@ -9224,10 +9240,10 @@
         <v>44</v>
       </c>
       <c r="E438" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2</v>
       </c>
@@ -9241,10 +9257,10 @@
         <v>44</v>
       </c>
       <c r="E439" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>2</v>
       </c>
@@ -9258,10 +9274,10 @@
         <v>44</v>
       </c>
       <c r="E440" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>2</v>
       </c>
@@ -9275,10 +9291,10 @@
         <v>44</v>
       </c>
       <c r="E441" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>2</v>
       </c>
@@ -9292,10 +9308,10 @@
         <v>44</v>
       </c>
       <c r="E442" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2</v>
       </c>
@@ -9309,10 +9325,10 @@
         <v>47</v>
       </c>
       <c r="E443" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>2</v>
       </c>
@@ -9326,10 +9342,10 @@
         <v>47</v>
       </c>
       <c r="E444" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>2</v>
       </c>
@@ -9343,10 +9359,10 @@
         <v>47</v>
       </c>
       <c r="E445" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>2</v>
       </c>
@@ -9360,10 +9376,10 @@
         <v>47</v>
       </c>
       <c r="E446" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>2</v>
       </c>
@@ -9377,10 +9393,10 @@
         <v>47</v>
       </c>
       <c r="E447" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>2</v>
       </c>
@@ -9394,10 +9410,10 @@
         <v>47</v>
       </c>
       <c r="E448" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>2</v>
       </c>
@@ -9411,10 +9427,10 @@
         <v>47</v>
       </c>
       <c r="E449" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>2</v>
       </c>
@@ -9428,10 +9444,10 @@
         <v>47</v>
       </c>
       <c r="E450" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>2</v>
       </c>
@@ -9445,10 +9461,10 @@
         <v>47</v>
       </c>
       <c r="E451" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>2</v>
       </c>
@@ -9462,10 +9478,10 @@
         <v>47</v>
       </c>
       <c r="E452" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2</v>
       </c>
@@ -9479,10 +9495,10 @@
         <v>47</v>
       </c>
       <c r="E453" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2</v>
       </c>
@@ -9496,10 +9512,10 @@
         <v>47</v>
       </c>
       <c r="E454" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2</v>
       </c>
@@ -9513,10 +9529,10 @@
         <v>47</v>
       </c>
       <c r="E455" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2</v>
       </c>
@@ -9530,10 +9546,10 @@
         <v>47</v>
       </c>
       <c r="E456" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2</v>
       </c>
@@ -9547,10 +9563,10 @@
         <v>47</v>
       </c>
       <c r="E457" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2</v>
       </c>
@@ -9564,10 +9580,10 @@
         <v>47</v>
       </c>
       <c r="E458" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>2</v>
       </c>
@@ -9581,10 +9597,10 @@
         <v>47</v>
       </c>
       <c r="E459" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>2</v>
       </c>
@@ -9598,10 +9614,10 @@
         <v>47</v>
       </c>
       <c r="E460" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2</v>
       </c>
@@ -9615,10 +9631,10 @@
         <v>47</v>
       </c>
       <c r="E461" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>2</v>
       </c>
@@ -9632,10 +9648,10 @@
         <v>47</v>
       </c>
       <c r="E462" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>2</v>
       </c>
@@ -9649,10 +9665,10 @@
         <v>47</v>
       </c>
       <c r="E463" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2</v>
       </c>
@@ -9666,10 +9682,10 @@
         <v>49</v>
       </c>
       <c r="E464" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>2</v>
       </c>
@@ -9683,10 +9699,10 @@
         <v>49</v>
       </c>
       <c r="E465" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>2</v>
       </c>
@@ -9700,10 +9716,10 @@
         <v>49</v>
       </c>
       <c r="E466" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2</v>
       </c>
@@ -9717,10 +9733,10 @@
         <v>49</v>
       </c>
       <c r="E467" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2</v>
       </c>
@@ -9734,10 +9750,10 @@
         <v>49</v>
       </c>
       <c r="E468" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2</v>
       </c>
@@ -9751,10 +9767,10 @@
         <v>49</v>
       </c>
       <c r="E469" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>2</v>
       </c>
@@ -9768,10 +9784,10 @@
         <v>49</v>
       </c>
       <c r="E470" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2</v>
       </c>
@@ -9785,10 +9801,10 @@
         <v>50</v>
       </c>
       <c r="E471" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>2</v>
       </c>
@@ -9802,10 +9818,10 @@
         <v>50</v>
       </c>
       <c r="E472" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2</v>
       </c>
@@ -9819,10 +9835,10 @@
         <v>50</v>
       </c>
       <c r="E473" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2</v>
       </c>
@@ -9836,10 +9852,10 @@
         <v>50</v>
       </c>
       <c r="E474" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>2</v>
       </c>
@@ -9853,10 +9869,10 @@
         <v>50</v>
       </c>
       <c r="E475" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>2</v>
       </c>
@@ -9870,10 +9886,10 @@
         <v>50</v>
       </c>
       <c r="E476" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>2</v>
       </c>
@@ -9887,10 +9903,10 @@
         <v>50</v>
       </c>
       <c r="E477" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>2</v>
       </c>
@@ -9904,10 +9920,10 @@
         <v>50</v>
       </c>
       <c r="E478" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>2</v>
       </c>
@@ -9921,10 +9937,10 @@
         <v>50</v>
       </c>
       <c r="E479" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>2</v>
       </c>
@@ -9938,10 +9954,10 @@
         <v>50</v>
       </c>
       <c r="E480" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>2</v>
       </c>
@@ -9955,10 +9971,10 @@
         <v>50</v>
       </c>
       <c r="E481" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>2</v>
       </c>
@@ -9972,10 +9988,10 @@
         <v>51</v>
       </c>
       <c r="E482" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>2</v>
       </c>
@@ -9989,10 +10005,10 @@
         <v>52</v>
       </c>
       <c r="E483" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>2</v>
       </c>
@@ -10006,10 +10022,10 @@
         <v>52</v>
       </c>
       <c r="E484" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>2</v>
       </c>
@@ -10023,10 +10039,10 @@
         <v>52</v>
       </c>
       <c r="E485" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>2</v>
       </c>
@@ -10040,10 +10056,10 @@
         <v>52</v>
       </c>
       <c r="E486" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>2</v>
       </c>
@@ -10057,10 +10073,10 @@
         <v>52</v>
       </c>
       <c r="E487" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>2</v>
       </c>
@@ -10074,10 +10090,10 @@
         <v>54</v>
       </c>
       <c r="E488" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>2</v>
       </c>
@@ -10091,10 +10107,10 @@
         <v>54</v>
       </c>
       <c r="E489" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2</v>
       </c>
@@ -10108,10 +10124,10 @@
         <v>54</v>
       </c>
       <c r="E490" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>2</v>
       </c>
@@ -10125,10 +10141,10 @@
         <v>54</v>
       </c>
       <c r="E491" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>2</v>
       </c>
@@ -10142,10 +10158,10 @@
         <v>54</v>
       </c>
       <c r="E492" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>2</v>
       </c>
@@ -10159,10 +10175,10 @@
         <v>54</v>
       </c>
       <c r="E493" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>2</v>
       </c>
@@ -10176,10 +10192,10 @@
         <v>54</v>
       </c>
       <c r="E494" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>2</v>
       </c>
@@ -10193,10 +10209,10 @@
         <v>54</v>
       </c>
       <c r="E495" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>2</v>
       </c>
@@ -10210,10 +10226,10 @@
         <v>54</v>
       </c>
       <c r="E496" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>2</v>
       </c>
@@ -10227,10 +10243,10 @@
         <v>54</v>
       </c>
       <c r="E497" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>2</v>
       </c>
@@ -10244,10 +10260,10 @@
         <v>54</v>
       </c>
       <c r="E498" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>2</v>
       </c>
@@ -10261,10 +10277,10 @@
         <v>54</v>
       </c>
       <c r="E499" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>2</v>
       </c>
@@ -10278,10 +10294,10 @@
         <v>54</v>
       </c>
       <c r="E500" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2</v>
       </c>
@@ -10295,10 +10311,10 @@
         <v>54</v>
       </c>
       <c r="E501" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>2</v>
       </c>
@@ -10312,10 +10328,10 @@
         <v>54</v>
       </c>
       <c r="E502" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>2</v>
       </c>
@@ -10329,10 +10345,10 @@
         <v>54</v>
       </c>
       <c r="E503" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>2</v>
       </c>
@@ -10346,10 +10362,10 @@
         <v>54</v>
       </c>
       <c r="E504" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>2</v>
       </c>
@@ -10363,10 +10379,10 @@
         <v>54</v>
       </c>
       <c r="E505" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>2</v>
       </c>
@@ -10380,10 +10396,10 @@
         <v>54</v>
       </c>
       <c r="E506" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>2</v>
       </c>
@@ -10397,10 +10413,10 @@
         <v>54</v>
       </c>
       <c r="E507" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>2</v>
       </c>
@@ -10414,10 +10430,10 @@
         <v>54</v>
       </c>
       <c r="E508" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>2</v>
       </c>
@@ -10431,10 +10447,10 @@
         <v>54</v>
       </c>
       <c r="E509" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>2</v>
       </c>
@@ -10448,10 +10464,10 @@
         <v>56</v>
       </c>
       <c r="E510" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>2</v>
       </c>
@@ -10465,10 +10481,10 @@
         <v>56</v>
       </c>
       <c r="E511" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>2</v>
       </c>
@@ -10482,10 +10498,10 @@
         <v>56</v>
       </c>
       <c r="E512" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>2</v>
       </c>
@@ -10499,10 +10515,10 @@
         <v>59</v>
       </c>
       <c r="E513" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="514" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>2</v>
       </c>
@@ -10516,10 +10532,10 @@
         <v>59</v>
       </c>
       <c r="E514" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>2</v>
       </c>
@@ -10533,10 +10549,10 @@
         <v>59</v>
       </c>
       <c r="E515" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="516" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>2</v>
       </c>
@@ -10550,10 +10566,10 @@
         <v>59</v>
       </c>
       <c r="E516" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>2</v>
       </c>
@@ -10567,10 +10583,10 @@
         <v>59</v>
       </c>
       <c r="E517" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>2</v>
       </c>
@@ -10584,10 +10600,10 @@
         <v>59</v>
       </c>
       <c r="E518" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="519" spans="1:5">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>2</v>
       </c>
@@ -10601,10 +10617,10 @@
         <v>59</v>
       </c>
       <c r="E519" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="520" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>2</v>
       </c>
@@ -10618,10 +10634,10 @@
         <v>59</v>
       </c>
       <c r="E520" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="521" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>2</v>
       </c>
@@ -10635,10 +10651,10 @@
         <v>59</v>
       </c>
       <c r="E521" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="522" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>2</v>
       </c>
@@ -10652,10 +10668,10 @@
         <v>59</v>
       </c>
       <c r="E522" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="523" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>2</v>
       </c>
@@ -10669,10 +10685,10 @@
         <v>60</v>
       </c>
       <c r="E523" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="524" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>2</v>
       </c>
@@ -10686,10 +10702,10 @@
         <v>61</v>
       </c>
       <c r="E524" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="525" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>2</v>
       </c>
@@ -10703,10 +10719,10 @@
         <v>61</v>
       </c>
       <c r="E525" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="526" spans="1:5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>2</v>
       </c>
@@ -10720,10 +10736,10 @@
         <v>61</v>
       </c>
       <c r="E526" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="527" spans="1:5">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>2</v>
       </c>
@@ -10737,10 +10753,10 @@
         <v>61</v>
       </c>
       <c r="E527" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="528" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>2</v>
       </c>
@@ -10754,10 +10770,10 @@
         <v>61</v>
       </c>
       <c r="E528" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="529" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>2</v>
       </c>
@@ -10771,10 +10787,10 @@
         <v>61</v>
       </c>
       <c r="E529" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="530" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>2</v>
       </c>
@@ -10788,10 +10804,10 @@
         <v>61</v>
       </c>
       <c r="E530" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="531" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>2</v>
       </c>
@@ -10805,10 +10821,10 @@
         <v>61</v>
       </c>
       <c r="E531" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="532" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>2</v>
       </c>
@@ -10822,10 +10838,10 @@
         <v>61</v>
       </c>
       <c r="E532" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="533" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>2</v>
       </c>
@@ -10839,10 +10855,10 @@
         <v>61</v>
       </c>
       <c r="E533" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="534" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>2</v>
       </c>
@@ -10856,10 +10872,10 @@
         <v>61</v>
       </c>
       <c r="E534" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="535" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>2</v>
       </c>
@@ -10873,10 +10889,10 @@
         <v>61</v>
       </c>
       <c r="E535" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="536" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>2</v>
       </c>
@@ -10890,10 +10906,10 @@
         <v>61</v>
       </c>
       <c r="E536" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="537" spans="1:5">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>2</v>
       </c>
@@ -10907,10 +10923,10 @@
         <v>61</v>
       </c>
       <c r="E537" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="538" spans="1:5">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>2</v>
       </c>
@@ -10924,10 +10940,10 @@
         <v>61</v>
       </c>
       <c r="E538" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="539" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>2</v>
       </c>
@@ -10941,10 +10957,10 @@
         <v>61</v>
       </c>
       <c r="E539" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="540" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>2</v>
       </c>
@@ -10958,10 +10974,10 @@
         <v>61</v>
       </c>
       <c r="E540" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="541" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>2</v>
       </c>
@@ -10975,10 +10991,10 @@
         <v>61</v>
       </c>
       <c r="E541" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="542" spans="1:5">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>2</v>
       </c>
@@ -10992,10 +11008,10 @@
         <v>61</v>
       </c>
       <c r="E542" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="543" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>2</v>
       </c>
@@ -11009,10 +11025,10 @@
         <v>61</v>
       </c>
       <c r="E543" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="544" spans="1:5">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>2</v>
       </c>
@@ -11026,10 +11042,10 @@
         <v>61</v>
       </c>
       <c r="E544" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="545" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>2</v>
       </c>
@@ -11043,10 +11059,10 @@
         <v>61</v>
       </c>
       <c r="E545" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="546" spans="1:5">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>2</v>
       </c>
@@ -11060,10 +11076,10 @@
         <v>61</v>
       </c>
       <c r="E546" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="547" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>2</v>
       </c>
@@ -11077,10 +11093,10 @@
         <v>61</v>
       </c>
       <c r="E547" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="548" spans="1:5">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>2</v>
       </c>
@@ -11094,10 +11110,10 @@
         <v>63</v>
       </c>
       <c r="E548" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="549" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>2</v>
       </c>
@@ -11111,10 +11127,10 @@
         <v>63</v>
       </c>
       <c r="E549" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="550" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>2</v>
       </c>
@@ -11128,10 +11144,10 @@
         <v>63</v>
       </c>
       <c r="E550" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="551" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>2</v>
       </c>
@@ -11145,10 +11161,10 @@
         <v>63</v>
       </c>
       <c r="E551" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="552" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>2</v>
       </c>
@@ -11162,10 +11178,10 @@
         <v>63</v>
       </c>
       <c r="E552" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="553" spans="1:5">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>2</v>
       </c>
@@ -11179,10 +11195,10 @@
         <v>63</v>
       </c>
       <c r="E553" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="554" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>2</v>
       </c>
@@ -11196,10 +11212,10 @@
         <v>63</v>
       </c>
       <c r="E554" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="555" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>2</v>
       </c>
@@ -11213,10 +11229,10 @@
         <v>63</v>
       </c>
       <c r="E555" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="556" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>2</v>
       </c>
@@ -11230,10 +11246,10 @@
         <v>63</v>
       </c>
       <c r="E556" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="557" spans="1:5">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>2</v>
       </c>
@@ -11247,10 +11263,10 @@
         <v>63</v>
       </c>
       <c r="E557" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="558" spans="1:5">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>2</v>
       </c>
@@ -11264,10 +11280,10 @@
         <v>63</v>
       </c>
       <c r="E558" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="559" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>2</v>
       </c>
@@ -11281,10 +11297,10 @@
         <v>65</v>
       </c>
       <c r="E559" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="560" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>2</v>
       </c>
@@ -11298,10 +11314,10 @@
         <v>65</v>
       </c>
       <c r="E560" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="561" spans="1:5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>2</v>
       </c>
@@ -11315,10 +11331,10 @@
         <v>65</v>
       </c>
       <c r="E561" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="562" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>2</v>
       </c>
@@ -11332,10 +11348,10 @@
         <v>65</v>
       </c>
       <c r="E562" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="563" spans="1:5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>2</v>
       </c>
@@ -11349,10 +11365,10 @@
         <v>65</v>
       </c>
       <c r="E563" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="564" spans="1:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>2</v>
       </c>
@@ -11366,10 +11382,10 @@
         <v>65</v>
       </c>
       <c r="E564" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="565" spans="1:5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>2</v>
       </c>
@@ -11383,10 +11399,10 @@
         <v>65</v>
       </c>
       <c r="E565" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="566" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566">
         <v>2</v>
       </c>
@@ -11400,10 +11416,10 @@
         <v>67</v>
       </c>
       <c r="E566" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="567" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>2</v>
       </c>
@@ -11417,10 +11433,10 @@
         <v>67</v>
       </c>
       <c r="E567" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="568" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568">
         <v>2</v>
       </c>
@@ -11434,10 +11450,10 @@
         <v>67</v>
       </c>
       <c r="E568" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="569" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>2</v>
       </c>
@@ -11451,10 +11467,10 @@
         <v>67</v>
       </c>
       <c r="E569" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="570" spans="1:5">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570">
         <v>2</v>
       </c>
@@ -11468,10 +11484,10 @@
         <v>67</v>
       </c>
       <c r="E570" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="571" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>2</v>
       </c>
@@ -11485,10 +11501,10 @@
         <v>67</v>
       </c>
       <c r="E571" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="572" spans="1:5">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572">
         <v>2</v>
       </c>
@@ -11502,10 +11518,10 @@
         <v>67</v>
       </c>
       <c r="E572" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="573" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>2</v>
       </c>
@@ -11519,10 +11535,10 @@
         <v>67</v>
       </c>
       <c r="E573" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="574" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>2</v>
       </c>
@@ -11536,10 +11552,10 @@
         <v>67</v>
       </c>
       <c r="E574" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="575" spans="1:5">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>2</v>
       </c>
@@ -11553,10 +11569,10 @@
         <v>67</v>
       </c>
       <c r="E575" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="576" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>2</v>
       </c>
@@ -11570,10 +11586,10 @@
         <v>67</v>
       </c>
       <c r="E576" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="577" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>2</v>
       </c>
@@ -11587,10 +11603,10 @@
         <v>68</v>
       </c>
       <c r="E577" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="578" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>2</v>
       </c>
@@ -11604,10 +11620,10 @@
         <v>68</v>
       </c>
       <c r="E578" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="579" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>2</v>
       </c>
@@ -11621,10 +11637,10 @@
         <v>68</v>
       </c>
       <c r="E579" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="580" spans="1:5">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>2</v>
       </c>
@@ -11638,10 +11654,10 @@
         <v>68</v>
       </c>
       <c r="E580" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="581" spans="1:5">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>2</v>
       </c>
@@ -11655,10 +11671,10 @@
         <v>71</v>
       </c>
       <c r="E581" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="582" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>2</v>
       </c>
@@ -11672,7 +11688,7 @@
         <v>71</v>
       </c>
       <c r="E582" t="s">
-        <v>438</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
